--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -32,10 +33,16 @@
     <t xml:space="preserve">hi tehre mate </t>
   </si>
   <si>
+    <t>mate</t>
+  </si>
+  <si>
     <t>Hello there everone</t>
   </si>
   <si>
     <t xml:space="preserve">y though </t>
+  </si>
+  <si>
+    <t>Hello there</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1198,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1210,9 +1217,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1236,7 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1239,10 +1249,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -33,16 +32,10 @@
     <t xml:space="preserve">hi tehre mate </t>
   </si>
   <si>
-    <t>mate</t>
-  </si>
-  <si>
     <t>Hello there everone</t>
   </si>
   <si>
     <t xml:space="preserve">y though </t>
-  </si>
-  <si>
-    <t>Hello there</t>
   </si>
 </sst>
 </file>
@@ -1197,8 +1190,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1217,12 +1210,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1249,32 +1239,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
